--- a/ig/16-ajout-exemples/all-profiles.xlsx
+++ b/ig/16-ajout-exemples/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-17T16:13:15+00:00</t>
+    <t>2023-07-18T14:52:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/16-ajout-exemples/all-profiles.xlsx
+++ b/ig/16-ajout-exemples/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-18T14:52:39+00:00</t>
+    <t>2023-07-18T15:08:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/16-ajout-exemples/all-profiles.xlsx
+++ b/ig/16-ajout-exemples/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-18T15:08:10+00:00</t>
+    <t>2023-07-18T15:56:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/16-ajout-exemples/all-profiles.xlsx
+++ b/ig/16-ajout-exemples/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-18T15:56:29+00:00</t>
+    <t>2023-07-19T12:04:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/16-ajout-exemples/all-profiles.xlsx
+++ b/ig/16-ajout-exemples/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-19T12:04:32+00:00</t>
+    <t>2023-07-21T11:37:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
